--- a/03_口試/口試流程.xlsx
+++ b/03_口試/口試流程.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9132"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9135"/>
   </bookViews>
   <sheets>
     <sheet name="口試前準備" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
   <si>
     <t>提出申請</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -93,9 +93,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>與許先生確認文件申請OK。</t>
-  </si>
-  <si>
     <t>內容2</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -138,19 +135,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>確認口試教室及休息室的布局。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>1.確認全部口委都回覆論文閱讀方式。
 2.尚未回信口委，直接寄電子檔並說明先行提供電子檔，若口委需要紙本會在寄出。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>2020/12/29(二)~</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>2020/12/21(一)~2020/12/25(五)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -159,7 +148,229 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>與許先生確認</t>
+    <t>交通方式確認</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>詢問口委交通方式:
+1.台大由老師接送。
+2.中研院:
+3.政大:
+4.交大:應該是高鐵</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>練習簡報</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>與柏雄每1-2天互相練習</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>事前準備</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020/12/24(四)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>寄確認信</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>寄信給口委並請口委回信確認當天會出席。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>確認口委出席</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.確認口委都有回覆會出席。
+2.若有口委尚未回覆與老師說明。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>與許先生確認文件申請OK。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.與許先生確認口委口試費及交通費方式
+2.聘書製作時間。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020/12/29(二)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020/12/27(日)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020/12/6(日)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>規劃座位</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>規劃口試委員座位與人員流動方向</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020/12/28(一)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>確認教室</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.確認設備是否可正常運行電腦、投影機。
+2.確認場地佈置與桌椅 桌椅擺放、桌椅有無損毀。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>柏雄(\03_口試\正式口試\口試文件\柏雄)
+1.A_學位考試評分表_20份_柏雄.docx(每位口委一份，共9份，其餘備用)。
+2.B_學位考試成績表_3份_柏雄.docx(口委共寫一份，共1份，其餘備用)。
+3.C_博士學位論文口試委員會審定書_3份_柏雄.doc(口委共寫一份，共1份，其餘備用)。
+4.E_論文口試發表會_3份_柏雄.docx(門口張貼一份)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>柏雄題目有變更，確認所有文件皆有變動。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>人數</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>台大3位。
+政大2位。
+中研院1位。
+北科大1位
+交大1位(台南)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件列印</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.列印論文紙本，清河4份、柏雄9份。
+2.列印簡報內容並製作封面一頁兩張，清河4份、柏雄9份。
+3.列印相關口試文件，參閱下方。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.論文初稿紙本:4份(每位口委一份)
+2.口試簡報紙本:4份(每位口委一份)(一頁兩張直式並製作封面)
+3.論文比對報告(口試當天先不提供，若口委要看才拿出):
+    A.比對報告並製作封面。
+    B.學位論文原創性比對檢核表(老師蓋章)。
+    C.複核結果(圖書館MAIL回函)。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.論文初稿紙本:9份(每位口委一份)
+2.口試簡報紙本:9份(每位口委一份)(一頁兩張直式並製作封面)
+3.論文比對報告(口試當天先不提供，若口委要看才拿出)，1份:
+    A.比對報告並製作封面。
+    B.學位論文原創性比對檢核表(老師蓋章)。
+    C.複核結果(圖書館MAIL回函)。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>事前作業</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.確認口試東西都已準備完成:
+   文件、論文、餐點、餐廳、計程車。
+2.確認聘書已完成。
+3.若口委有開車詢問學校停車方式。
+4.因疫情關係確認是否有相關規定須要注意。
+5.與招待人員確認流程(文洋)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>清河:口委4人
+柏雄:口委9人
+協助人員:3人(文洋、柏雄家屬2位，確認當天校外人士可以進入校園)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.預計11-12點學校集合。
+2.確認場地、設備。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>確認口試教室及休息室的布局(拍照)。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>餐點、飲品</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">清河(\03_口試\正式口試\口試文件\清河)
+1.A_學位考試評分表_10份_清河.docx(每位口委一份，共4份，其餘備用)。
+2.B_學位考試成績表_3份_清河.docx(口委共寫一份，共1份，其餘備用)。
+3.C_碩士學位論文口試委員會審定書_3份_清河.docx(口委共寫一份，共1份，其餘備用)。
+4.E_論文口試發表會_3份_清河.docx(門口張貼一份)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>口試完確認口委都有簽名!!!</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>筆電
+筆電充電線
+VGA轉HDMI接頭
+VGA線
+HDMI線
+延長線
+Demo裝置(清河)噴灌、抹布、打火機</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>簡報筆(報告者用)
+光筆(老師使用)
+筆(水性、油性，各9支)
+剪刀、膠帶(黏貼公告)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用品1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用品2</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -170,7 +381,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -193,6 +404,28 @@
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF222222"/>
+      <name val="標楷體"/>
+      <family val="4"/>
+      <charset val="136"/>
     </font>
   </fonts>
   <fills count="3">
@@ -223,30 +456,60 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -528,21 +791,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="89.44140625" customWidth="1"/>
-    <col min="4" max="4" width="70" customWidth="1"/>
+    <col min="1" max="1" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="89.5" customWidth="1"/>
+    <col min="4" max="4" width="86.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -550,122 +814,312 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="97.2" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:4" ht="99">
+      <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="33">
+      <c r="A4" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="33">
+      <c r="A5" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="82.5">
+      <c r="A6" s="11"/>
+      <c r="B6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="66">
+      <c r="A8" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="2" t="s">
+    <row r="9" spans="1:4">
+      <c r="A9" s="12"/>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:4" ht="33">
+      <c r="A10" s="12"/>
+      <c r="B10" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="64.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="2" t="s">
+      <c r="C10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:4" ht="33" customHeight="1">
+      <c r="A11" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:4" ht="99">
+      <c r="A12" s="12"/>
+      <c r="B12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="49.5">
+      <c r="A13" s="12"/>
+      <c r="B13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:4" ht="33">
+      <c r="A15" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:4" ht="33">
+      <c r="A16" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+    </row>
+    <row r="18" spans="1:4" s="8" customFormat="1" ht="33">
+      <c r="A18" s="15"/>
+      <c r="B18" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="33">
+      <c r="A19" s="16"/>
+      <c r="B19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="33">
+      <c r="A20" s="16"/>
+      <c r="B20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="7"/>
-      <c r="B7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="2"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="7"/>
-      <c r="B8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="2"/>
-    </row>
-    <row r="9" spans="1:4" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A9" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="B12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>22</v>
-      </c>
+    <row r="21" spans="1:4" ht="49.5">
+      <c r="A21" s="16"/>
+      <c r="B21" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="16"/>
+      <c r="B22" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="99">
+      <c r="A23" s="16"/>
+      <c r="B23" t="s">
+        <v>64</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="99">
+      <c r="A24" s="16"/>
+      <c r="B24" t="s">
+        <v>65</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="115.5">
+      <c r="A25" s="16"/>
+      <c r="B25" t="s">
+        <v>66</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="66">
+      <c r="A26" s="16"/>
+      <c r="B26" t="s">
+        <v>67</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="C27" s="1"/>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="C28" s="1"/>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="C29" s="1"/>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="C30" s="1"/>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="C31" s="1"/>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="C32" s="1"/>
+    </row>
+    <row r="33" spans="3:3">
+      <c r="C33" s="1"/>
+    </row>
+    <row r="34" spans="3:3">
+      <c r="C34" s="1"/>
+    </row>
+    <row r="35" spans="3:3">
+      <c r="C35" s="1"/>
+    </row>
+    <row r="36" spans="3:3">
+      <c r="C36" s="13"/>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A11:A13"/>
+  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -678,7 +1132,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/03_口試/口試流程.xlsx
+++ b/03_口試/口試流程.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9135"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9132"/>
   </bookViews>
   <sheets>
     <sheet name="口試前準備" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
   <si>
     <t>提出申請</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -248,14 +248,6 @@
   </si>
   <si>
     <t>人數</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>台大3位。
-政大2位。
-中研院1位。
-北科大1位
-交大1位(台南)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -371,6 +363,23 @@
   </si>
   <si>
     <t>用品2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>台大3位。
+政大2位。
+中研院1位。
+北科大1位
+交大1位(台南)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>電子檔
+郁方老師、黃彥男老師、蔡偉和老師
+未回覆
+郭斯彥老師、顏嗣鈞老師、張耀文老師、謝君偉老師
+紙本
+蔡瑞煌老師</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -490,26 +499,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -794,16 +803,16 @@
   <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C18" sqref="C18"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
-    <col min="1" max="1" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="89.5" customWidth="1"/>
-    <col min="4" max="4" width="86.125" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="89.44140625" customWidth="1"/>
+    <col min="4" max="4" width="86.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -828,7 +837,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="99">
+    <row r="3" spans="1:4" ht="97.2">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
@@ -842,7 +851,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="33">
+    <row r="4" spans="1:4" ht="97.2">
       <c r="A4" s="4" t="s">
         <v>12</v>
       </c>
@@ -852,9 +861,12 @@
       <c r="C4" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="33">
-      <c r="A5" s="11" t="s">
+      <c r="D4" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="32.4">
+      <c r="A5" s="16" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -864,8 +876,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="82.5">
-      <c r="A6" s="11"/>
+    <row r="6" spans="1:4" ht="81">
+      <c r="A6" s="16"/>
       <c r="B6" s="1" t="s">
         <v>27</v>
       </c>
@@ -873,7 +885,7 @@
         <v>28</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -890,8 +902,8 @@
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="66">
-      <c r="A8" s="12" t="s">
+    <row r="8" spans="1:4" ht="64.8">
+      <c r="A8" s="17" t="s">
         <v>17</v>
       </c>
       <c r="B8" t="s">
@@ -905,17 +917,17 @@
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="12"/>
+      <c r="A9" s="17"/>
       <c r="B9" t="s">
         <v>23</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:4" ht="33">
-      <c r="A10" s="12"/>
+    <row r="10" spans="1:4" ht="32.4">
+      <c r="A10" s="17"/>
       <c r="B10" t="s">
         <v>26</v>
       </c>
@@ -925,7 +937,7 @@
       <c r="D10" s="1"/>
     </row>
     <row r="11" spans="1:4" ht="33" customHeight="1">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="17" t="s">
         <v>25</v>
       </c>
       <c r="B11" t="s">
@@ -936,22 +948,22 @@
       </c>
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:4" ht="99">
-      <c r="A12" s="12"/>
+    <row r="12" spans="1:4" ht="97.2">
+      <c r="A12" s="17"/>
       <c r="B12" t="s">
         <v>31</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="49.5">
-      <c r="A13" s="12"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="48.6">
+      <c r="A13" s="17"/>
       <c r="B13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -966,7 +978,7 @@
       </c>
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:4" ht="33">
+    <row r="15" spans="1:4" ht="32.4">
       <c r="A15" s="5" t="s">
         <v>40</v>
       </c>
@@ -978,7 +990,7 @@
       </c>
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="1:4" ht="33">
+    <row r="16" spans="1:4" ht="32.4">
       <c r="A16" s="5" t="s">
         <v>44</v>
       </c>
@@ -991,26 +1003,26 @@
       <c r="D16" s="1"/>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="14" t="s">
+      <c r="A17" s="12" t="s">
         <v>39</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-    </row>
-    <row r="18" spans="1:4" s="8" customFormat="1" ht="33">
-      <c r="A18" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+    </row>
+    <row r="18" spans="1:4" s="8" customFormat="1" ht="32.4">
+      <c r="A18" s="13"/>
       <c r="B18" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="33">
-      <c r="A19" s="16"/>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="32.4">
+      <c r="A19" s="14"/>
       <c r="B19" t="s">
         <v>8</v>
       </c>
@@ -1018,8 +1030,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="33">
-      <c r="A20" s="16"/>
+    <row r="20" spans="1:4" ht="32.4">
+      <c r="A20" s="14"/>
       <c r="B20" t="s">
         <v>9</v>
       </c>
@@ -1027,61 +1039,61 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="49.5">
-      <c r="A21" s="16"/>
+    <row r="21" spans="1:4" ht="48.6">
+      <c r="A21" s="14"/>
       <c r="B21" t="s">
         <v>49</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="16"/>
+      <c r="A22" s="14"/>
       <c r="B22" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="97.2">
+      <c r="A23" s="14"/>
+      <c r="B23" t="s">
+        <v>63</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>60</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="99">
-      <c r="A23" s="16"/>
-      <c r="B23" t="s">
-        <v>64</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="99">
-      <c r="A24" s="16"/>
+    <row r="24" spans="1:4" ht="97.2">
+      <c r="A24" s="14"/>
       <c r="B24" t="s">
+        <v>64</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="113.4">
+      <c r="A25" s="14"/>
+      <c r="B25" t="s">
         <v>65</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="115.5">
-      <c r="A25" s="16"/>
-      <c r="B25" t="s">
+      <c r="C25" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="64.8">
+      <c r="A26" s="14"/>
+      <c r="B26" t="s">
         <v>66</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C26" s="1" t="s">
         <v>62</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="66">
-      <c r="A26" s="16"/>
-      <c r="B26" t="s">
-        <v>67</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1112,7 +1124,7 @@
       <c r="C35" s="1"/>
     </row>
     <row r="36" spans="3:3">
-      <c r="C36" s="13"/>
+      <c r="C36" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1132,7 +1144,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/03_口試/口試流程.xlsx
+++ b/03_口試/口試流程.xlsx
@@ -114,20 +114,8 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>說明:
-https://lib.ntut.edu.tw/sp.asp?xdurl=mp100/genform.asp&amp;mp=100&amp;CtNodeId=1600</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>1.16:00～16:20，在職碩士生 林清河，論文題目:設計與實作工廠即時監控資訊系統
 2.16:30～17:30，在職博士生 林柏雄，論文題目:有效去除高密度脈衝雜訊影像的除雜訊技術</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.論文比對複核:圖書館網頁申請復核並收到複核MAIL。
-2.列印論文比對報告並製作封面。
-3.列印圖書館回覆複核結果MAIL。
-3.給老師蓋論文原創性比對檢核表(\03_口試\口試申請\C03.odt)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -197,20 +185,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1.與許先生確認口委口試費及交通費方式
-2.聘書製作時間。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>2020/12/29(二)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>2020/12/27(日)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2020/12/6(日)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -240,10 +219,6 @@
 2.B_學位考試成績表_3份_柏雄.docx(口委共寫一份，共1份，其餘備用)。
 3.C_博士學位論文口試委員會審定書_3份_柏雄.doc(口委共寫一份，共1份，其餘備用)。
 4.E_論文口試發表會_3份_柏雄.docx(門口張貼一份)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>柏雄題目有變更，確認所有文件皆有變動。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -380,6 +355,45 @@
 郭斯彥老師、顏嗣鈞老師、張耀文老師、謝君偉老師
 紙本
 蔡瑞煌老師</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>確認老師帳戶</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.與許先生確認口委口試費及交通費方式
+2.聘書製作時間。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>12/11提供許先生，張耀文、蔡瑞煌、郁方、謝君偉老師的身分證、匯款帳號名稱、匯款帳號。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.論文比對複核:圖書館網頁申請復核並收到複核MAIL。
+2.列印論文比對報告並製作封面。
+3.列印圖書館回覆複核結果MAIL。
+3.給老師蓋論文原創性比對檢核表(\03_口試\正式口試\口試文件\清河)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">說明:
+https://lib.ntut.edu.tw/sp.asp?xdurl=mp100/genform.asp&amp;mp=100&amp;CtNodeId=1600
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>柏雄題目有變更，確認所有文件皆有變動。</t>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -437,7 +451,7 @@
       <charset val="136"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -447,6 +461,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -465,7 +485,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -475,9 +495,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -515,10 +532,22 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -800,11 +829,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -830,7 +859,7 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B2" t="s">
@@ -838,31 +867,31 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="97.2">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D3" t="s">
-        <v>37</v>
+      <c r="D3" s="20" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="97.2">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>68</v>
+      <c r="D4" s="19" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="32.4">
@@ -873,231 +902,233 @@
         <v>14</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="64.8">
+      <c r="A6" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="15"/>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:4" ht="32.4">
+      <c r="A8" s="15"/>
+      <c r="B8" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="81">
-      <c r="A6" s="16"/>
-      <c r="B6" s="1" t="s">
+      <c r="C8" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:4" ht="32.4">
+      <c r="A9" s="15"/>
+      <c r="B9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:4" ht="81">
+      <c r="A10" s="15"/>
+      <c r="B10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="15"/>
+      <c r="B11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="33" customHeight="1">
+      <c r="A12" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="4" t="s">
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:4" ht="97.2">
+      <c r="A13" s="15"/>
+      <c r="B13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="48.6">
+      <c r="A14" s="15"/>
+      <c r="B14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:4" ht="32.4">
+      <c r="A16" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="1:4" ht="32.4">
+      <c r="A17" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" t="s">
         <v>41</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+    </row>
+    <row r="19" spans="1:4" s="7" customFormat="1" ht="32.4">
+      <c r="A19" s="12"/>
+      <c r="B19" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="32.4">
+      <c r="A20" s="13"/>
+      <c r="B20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="32.4">
+      <c r="A21" s="13"/>
+      <c r="B21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="48.6">
+      <c r="A22" s="13"/>
+      <c r="B22" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="13"/>
+      <c r="B23" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="97.2">
+      <c r="A24" s="13"/>
+      <c r="B24" t="s">
+        <v>58</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D7" t="s">
+    </row>
+    <row r="25" spans="1:4" ht="97.2">
+      <c r="A25" s="13"/>
+      <c r="B25" t="s">
+        <v>59</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="64.8">
-      <c r="A8" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="17"/>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D9" s="1"/>
-    </row>
-    <row r="10" spans="1:4" ht="32.4">
-      <c r="A10" s="17"/>
-      <c r="B10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" s="1"/>
-    </row>
-    <row r="11" spans="1:4" ht="33" customHeight="1">
-      <c r="A11" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" s="1"/>
-    </row>
-    <row r="12" spans="1:4" ht="97.2">
-      <c r="A12" s="17"/>
-      <c r="B12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="48.6">
-      <c r="A13" s="17"/>
-      <c r="B13" t="s">
-        <v>50</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B14" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" s="1"/>
-    </row>
-    <row r="15" spans="1:4" ht="32.4">
-      <c r="A15" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B15" t="s">
-        <v>35</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D15" s="1"/>
-    </row>
-    <row r="16" spans="1:4" ht="32.4">
-      <c r="A16" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B16" t="s">
-        <v>45</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D16" s="1"/>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-    </row>
-    <row r="18" spans="1:4" s="8" customFormat="1" ht="32.4">
-      <c r="A18" s="13"/>
-      <c r="B18" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C18" s="10" t="s">
+    <row r="26" spans="1:4" ht="113.4">
+      <c r="A26" s="13"/>
+      <c r="B26" t="s">
+        <v>60</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="64.8">
+      <c r="A27" s="13"/>
+      <c r="B27" t="s">
+        <v>61</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" ht="32.4">
-      <c r="A19" s="14"/>
-      <c r="B19" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="32.4">
-      <c r="A20" s="14"/>
-      <c r="B20" t="s">
-        <v>9</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="48.6">
-      <c r="A21" s="14"/>
-      <c r="B21" t="s">
-        <v>49</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="14"/>
-      <c r="B22" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="97.2">
-      <c r="A23" s="14"/>
-      <c r="B23" t="s">
-        <v>63</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="97.2">
-      <c r="A24" s="14"/>
-      <c r="B24" t="s">
-        <v>64</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="113.4">
-      <c r="A25" s="14"/>
-      <c r="B25" t="s">
-        <v>65</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="64.8">
-      <c r="A26" s="14"/>
-      <c r="B26" t="s">
-        <v>66</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="C27" s="1"/>
     </row>
     <row r="28" spans="1:4">
       <c r="C28" s="1"/>
@@ -1124,13 +1155,15 @@
       <c r="C35" s="1"/>
     </row>
     <row r="36" spans="3:3">
-      <c r="C36" s="11"/>
+      <c r="C36" s="1"/>
+    </row>
+    <row r="37" spans="3:3">
+      <c r="C37" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="A11:A13"/>
+  <mergeCells count="2">
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="A6:A11"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/03_口試/口試流程.xlsx
+++ b/03_口試/口試流程.xlsx
@@ -13,7 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="口試前準備" sheetId="1" r:id="rId1"/>
-    <sheet name="口試當天流程" sheetId="2" r:id="rId2"/>
+    <sheet name="口試座位" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -471,7 +471,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -479,13 +479,75 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -532,9 +594,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -547,6 +606,27 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -832,8 +912,8 @@
   <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -867,35 +947,35 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="97.2">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="19" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="97.2">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="18" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="32.4">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="15" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -906,7 +986,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="64.8">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="20" t="s">
         <v>17</v>
       </c>
       <c r="B6" t="s">
@@ -920,7 +1000,7 @@
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="15"/>
+      <c r="A7" s="20"/>
       <c r="B7" t="s">
         <v>21</v>
       </c>
@@ -930,7 +1010,7 @@
       <c r="D7" s="1"/>
     </row>
     <row r="8" spans="1:4" ht="32.4">
-      <c r="A8" s="15"/>
+      <c r="A8" s="20"/>
       <c r="B8" t="s">
         <v>24</v>
       </c>
@@ -940,7 +1020,7 @@
       <c r="D8" s="1"/>
     </row>
     <row r="9" spans="1:4" ht="32.4">
-      <c r="A9" s="15"/>
+      <c r="A9" s="20"/>
       <c r="B9" t="s">
         <v>64</v>
       </c>
@@ -950,7 +1030,7 @@
       <c r="D9" s="1"/>
     </row>
     <row r="10" spans="1:4" ht="81">
-      <c r="A10" s="15"/>
+      <c r="A10" s="20"/>
       <c r="B10" s="1" t="s">
         <v>25</v>
       </c>
@@ -962,7 +1042,7 @@
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="15"/>
+      <c r="A11" s="20"/>
       <c r="B11" s="1" t="s">
         <v>38</v>
       </c>
@@ -971,7 +1051,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="33" customHeight="1">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="20" t="s">
         <v>23</v>
       </c>
       <c r="B12" t="s">
@@ -983,7 +1063,7 @@
       <c r="D12" s="1"/>
     </row>
     <row r="13" spans="1:4" ht="97.2">
-      <c r="A13" s="15"/>
+      <c r="A13" s="20"/>
       <c r="B13" t="s">
         <v>29</v>
       </c>
@@ -992,7 +1072,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="48.6">
-      <c r="A14" s="15"/>
+      <c r="A14" s="20"/>
       <c r="B14" t="s">
         <v>45</v>
       </c>
@@ -1173,13 +1253,97 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="C3:J12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16:I17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="3" spans="3:10">
+      <c r="C3" s="21"/>
+      <c r="D3" s="22"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="22"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="22"/>
+    </row>
+    <row r="4" spans="3:10">
+      <c r="C4" s="23"/>
+      <c r="D4" s="24"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="24"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="24"/>
+    </row>
+    <row r="5" spans="3:10">
+      <c r="C5" s="23"/>
+      <c r="D5" s="24"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="24"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="24"/>
+    </row>
+    <row r="6" spans="3:10">
+      <c r="C6" s="23"/>
+      <c r="D6" s="24"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="24"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="24"/>
+    </row>
+    <row r="7" spans="3:10">
+      <c r="C7" s="23"/>
+      <c r="D7" s="24"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="24"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="24"/>
+    </row>
+    <row r="8" spans="3:10">
+      <c r="C8" s="23"/>
+      <c r="D8" s="24"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="24"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="24"/>
+    </row>
+    <row r="9" spans="3:10">
+      <c r="C9" s="23"/>
+      <c r="D9" s="24"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="24"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="24"/>
+    </row>
+    <row r="10" spans="3:10">
+      <c r="C10" s="23"/>
+      <c r="D10" s="24"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="24"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="24"/>
+    </row>
+    <row r="11" spans="3:10">
+      <c r="C11" s="23"/>
+      <c r="D11" s="24"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="24"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="24"/>
+    </row>
+    <row r="12" spans="3:10">
+      <c r="C12" s="25"/>
+      <c r="D12" s="26"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="26"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="26"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/03_口試/口試流程.xlsx
+++ b/03_口試/口試流程.xlsx
@@ -14,6 +14,7 @@
   <sheets>
     <sheet name="口試前準備" sheetId="1" r:id="rId1"/>
     <sheet name="口試座位" sheetId="2" r:id="rId2"/>
+    <sheet name="口試當天流程" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
   <si>
     <t>提出申請</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -308,16 +309,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>筆電
-筆電充電線
-VGA轉HDMI接頭
-VGA線
-HDMI線
-延長線
-Demo裝置(清河)噴灌、抹布、打火機</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>簡報筆(報告者用)
 光筆(老師使用)
 筆(水性、油性，各9支)
@@ -364,10 +355,6 @@
   <si>
     <t>1.與許先生確認口委口試費及交通費方式
 2.聘書製作時間。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>12/11提供許先生，張耀文、蔡瑞煌、郁方、謝君偉老師的身分證、匯款帳號名稱、匯款帳號。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -394,6 +381,75 @@
       </rPr>
       <t>柏雄題目有變更，確認所有文件皆有變動。</t>
     </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1500～1530餐點會到，先放到103教室(蛋糕、馬卡龍)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1500～1530</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>餐點會到，先放到103教室(蛋糕、馬卡龍)</t>
+  </si>
+  <si>
+    <t>1600前</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>確認餐點、投影設備ok</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1620-1630</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>請老師確認印領清冊資料沒問題並簽名，清河拿下去給系辦</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1200-1300</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>確認211投影設備</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1550-1600</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>擺設餐點及論文、簡報、筆、雷射筆(3隻)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>電腦桌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>投影布</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>門口</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>12/11提供許先生，張耀文、蔡瑞煌、郁方、謝君偉老師的身分證、匯款帳號名稱、匯款帳號。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>筆電
+筆電充電線
+VGA轉HDMI接頭
+VGA線
+HDMI線
+延長線
+Demo裝置(清河)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -471,7 +527,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -541,13 +597,105 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -608,26 +756,53 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -912,8 +1087,8 @@
   <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -971,7 +1146,7 @@
         <v>19</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="32.4">
@@ -986,21 +1161,21 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="64.8">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="29" t="s">
         <v>17</v>
       </c>
       <c r="B6" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="20"/>
+      <c r="A7" s="29"/>
       <c r="B7" t="s">
         <v>21</v>
       </c>
@@ -1010,27 +1185,27 @@
       <c r="D7" s="1"/>
     </row>
     <row r="8" spans="1:4" ht="32.4">
-      <c r="A8" s="20"/>
+      <c r="A8" s="29"/>
       <c r="B8" t="s">
         <v>24</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D8" s="1"/>
     </row>
     <row r="9" spans="1:4" ht="32.4">
-      <c r="A9" s="20"/>
+      <c r="A9" s="29"/>
       <c r="B9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="D9" s="1"/>
     </row>
     <row r="10" spans="1:4" ht="81">
-      <c r="A10" s="20"/>
+      <c r="A10" s="29"/>
       <c r="B10" s="1" t="s">
         <v>25</v>
       </c>
@@ -1038,11 +1213,11 @@
         <v>26</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="20"/>
+      <c r="A11" s="29"/>
       <c r="B11" s="1" t="s">
         <v>38</v>
       </c>
@@ -1051,7 +1226,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="33" customHeight="1">
-      <c r="A12" s="20" t="s">
+      <c r="A12" s="29" t="s">
         <v>23</v>
       </c>
       <c r="B12" t="s">
@@ -1063,7 +1238,7 @@
       <c r="D12" s="1"/>
     </row>
     <row r="13" spans="1:4" ht="97.2">
-      <c r="A13" s="20"/>
+      <c r="A13" s="29"/>
       <c r="B13" t="s">
         <v>29</v>
       </c>
@@ -1072,7 +1247,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="48.6">
-      <c r="A14" s="20"/>
+      <c r="A14" s="29"/>
       <c r="B14" t="s">
         <v>45</v>
       </c>
@@ -1167,11 +1342,14 @@
       <c r="B23" t="s">
         <v>54</v>
       </c>
+      <c r="C23" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="24" spans="1:4" ht="97.2">
       <c r="A24" s="13"/>
       <c r="B24" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>55</v>
@@ -1183,7 +1361,7 @@
     <row r="25" spans="1:4" ht="97.2">
       <c r="A25" s="13"/>
       <c r="B25" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>47</v>
@@ -1195,19 +1373,19 @@
     <row r="26" spans="1:4" ht="113.4">
       <c r="A26" s="13"/>
       <c r="B26" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>56</v>
+        <v>82</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="64.8">
       <c r="A27" s="13"/>
       <c r="B27" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1253,93 +1431,241 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:J12"/>
+  <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16:I17"/>
+      <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
   <sheetData>
-    <row r="3" spans="3:10">
-      <c r="C3" s="21"/>
-      <c r="D3" s="22"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="22"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="22"/>
-    </row>
-    <row r="4" spans="3:10">
-      <c r="C4" s="23"/>
-      <c r="D4" s="24"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="24"/>
-      <c r="I4" s="23"/>
-      <c r="J4" s="24"/>
-    </row>
-    <row r="5" spans="3:10">
-      <c r="C5" s="23"/>
-      <c r="D5" s="24"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="24"/>
-      <c r="I5" s="23"/>
-      <c r="J5" s="24"/>
-    </row>
-    <row r="6" spans="3:10">
-      <c r="C6" s="23"/>
-      <c r="D6" s="24"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="24"/>
-      <c r="I6" s="23"/>
-      <c r="J6" s="24"/>
-    </row>
-    <row r="7" spans="3:10">
-      <c r="C7" s="23"/>
-      <c r="D7" s="24"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="24"/>
-      <c r="I7" s="23"/>
-      <c r="J7" s="24"/>
-    </row>
-    <row r="8" spans="3:10">
-      <c r="C8" s="23"/>
-      <c r="D8" s="24"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="24"/>
-      <c r="I8" s="23"/>
-      <c r="J8" s="24"/>
-    </row>
-    <row r="9" spans="3:10">
-      <c r="C9" s="23"/>
-      <c r="D9" s="24"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="24"/>
-      <c r="I9" s="23"/>
-      <c r="J9" s="24"/>
-    </row>
-    <row r="10" spans="3:10">
-      <c r="C10" s="23"/>
-      <c r="D10" s="24"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="24"/>
-      <c r="I10" s="23"/>
-      <c r="J10" s="24"/>
-    </row>
-    <row r="11" spans="3:10">
-      <c r="C11" s="23"/>
-      <c r="D11" s="24"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="24"/>
-      <c r="I11" s="23"/>
-      <c r="J11" s="24"/>
-    </row>
-    <row r="12" spans="3:10">
-      <c r="C12" s="25"/>
-      <c r="D12" s="26"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="26"/>
-      <c r="I12" s="25"/>
-      <c r="J12" s="26"/>
+    <row r="1" spans="3:13">
+      <c r="K1" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="L1" s="32"/>
+    </row>
+    <row r="2" spans="3:13">
+      <c r="G2" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="H2" s="31"/>
+      <c r="I2" s="32"/>
+    </row>
+    <row r="6" spans="3:13">
+      <c r="C6" s="20"/>
+      <c r="D6" s="21"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="21"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="21"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="21"/>
+    </row>
+    <row r="7" spans="3:13">
+      <c r="C7" s="22"/>
+      <c r="D7" s="23"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="23"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="23"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="23"/>
+    </row>
+    <row r="8" spans="3:13">
+      <c r="C8" s="22"/>
+      <c r="D8" s="23"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="23"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="23"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="23"/>
+    </row>
+    <row r="9" spans="3:13">
+      <c r="C9" s="22"/>
+      <c r="D9" s="23"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="23"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="23"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="23"/>
+    </row>
+    <row r="10" spans="3:13">
+      <c r="C10" s="22"/>
+      <c r="D10" s="23"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="23"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="23"/>
+      <c r="L10" s="22"/>
+      <c r="M10" s="23"/>
+    </row>
+    <row r="11" spans="3:13">
+      <c r="C11" s="22"/>
+      <c r="D11" s="23"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="23"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="23"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="23"/>
+    </row>
+    <row r="12" spans="3:13">
+      <c r="C12" s="22"/>
+      <c r="D12" s="23"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="23"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="23"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="23"/>
+    </row>
+    <row r="13" spans="3:13">
+      <c r="C13" s="22"/>
+      <c r="D13" s="23"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="23"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="23"/>
+      <c r="L13" s="22"/>
+      <c r="M13" s="23"/>
+    </row>
+    <row r="14" spans="3:13">
+      <c r="C14" s="22"/>
+      <c r="D14" s="23"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="23"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="23"/>
+      <c r="L14" s="22"/>
+      <c r="M14" s="23"/>
+    </row>
+    <row r="15" spans="3:13">
+      <c r="C15" s="24"/>
+      <c r="D15" s="25"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="25"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="25"/>
+      <c r="L15" s="24"/>
+      <c r="M15" s="25"/>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="D18" s="20"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="26"/>
+      <c r="L18" s="21"/>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="34"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="27"/>
+      <c r="K19" s="27"/>
+      <c r="L19" s="23"/>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="35"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="27"/>
+      <c r="J20" s="27"/>
+      <c r="K20" s="27"/>
+      <c r="L20" s="23"/>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="D21" s="24"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="28"/>
+      <c r="K21" s="28"/>
+      <c r="L21" s="25"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="A18:A20"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.2"/>
+  <cols>
+    <col min="1" max="1" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="64.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B6" t="s">
+        <v>73</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
